--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Csf3</t>
+  </si>
+  <si>
+    <t>Csf3r</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Csf3</t>
-  </si>
-  <si>
-    <t>Csf3r</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2155396666666667</v>
+        <v>0.5070163333333334</v>
       </c>
       <c r="H2">
-        <v>0.6466189999999999</v>
+        <v>1.521049</v>
       </c>
       <c r="I2">
-        <v>0.1864002714341762</v>
+        <v>0.697371256392364</v>
       </c>
       <c r="J2">
-        <v>0.1864002714341762</v>
+        <v>0.697371256392364</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.215598</v>
+        <v>0.07904133333333334</v>
       </c>
       <c r="N2">
-        <v>0.646794</v>
+        <v>0.237124</v>
       </c>
       <c r="O2">
-        <v>0.002716166850654942</v>
+        <v>0.0007343710751920149</v>
       </c>
       <c r="P2">
-        <v>0.002716166850654943</v>
+        <v>0.0007343710751920148</v>
       </c>
       <c r="Q2">
-        <v>0.046469921054</v>
+        <v>0.04007524700844445</v>
       </c>
       <c r="R2">
-        <v>0.418229289486</v>
+        <v>0.360677223076</v>
       </c>
       <c r="S2">
-        <v>0.0005062942382225927</v>
+        <v>0.0005121292793648666</v>
       </c>
       <c r="T2">
-        <v>0.0005062942382225928</v>
+        <v>0.0005121292793648666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2155396666666667</v>
+        <v>0.5070163333333334</v>
       </c>
       <c r="H3">
-        <v>0.6466189999999999</v>
+        <v>1.521049</v>
       </c>
       <c r="I3">
-        <v>0.1864002714341762</v>
+        <v>0.697371256392364</v>
       </c>
       <c r="J3">
-        <v>0.1864002714341762</v>
+        <v>0.697371256392364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.22942333333333</v>
+        <v>68.78716633333333</v>
       </c>
       <c r="N3">
-        <v>93.68826999999999</v>
+        <v>206.361499</v>
       </c>
       <c r="O3">
-        <v>0.3934374364468592</v>
+        <v>0.6390998629361258</v>
       </c>
       <c r="P3">
-        <v>0.3934374364468593</v>
+        <v>0.6390998629361259</v>
       </c>
       <c r="Q3">
-        <v>6.731179495458888</v>
+        <v>34.87621685471678</v>
       </c>
       <c r="R3">
-        <v>60.58061545912999</v>
+        <v>313.885951692451</v>
       </c>
       <c r="S3">
-        <v>0.07333684494606101</v>
+        <v>0.4456898743759536</v>
       </c>
       <c r="T3">
-        <v>0.07333684494606101</v>
+        <v>0.4456898743759537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2155396666666667</v>
+        <v>0.5070163333333334</v>
       </c>
       <c r="H4">
-        <v>0.6466189999999999</v>
+        <v>1.521049</v>
       </c>
       <c r="I4">
-        <v>0.1864002714341762</v>
+        <v>0.697371256392364</v>
       </c>
       <c r="J4">
-        <v>0.1864002714341762</v>
+        <v>0.697371256392364</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.93080933333334</v>
+        <v>38.76511933333333</v>
       </c>
       <c r="N4">
-        <v>143.792428</v>
+        <v>116.295358</v>
       </c>
       <c r="O4">
-        <v>0.6038463967024857</v>
+        <v>0.3601657659886822</v>
       </c>
       <c r="P4">
-        <v>0.6038463967024857</v>
+        <v>0.3601657659886822</v>
       </c>
       <c r="Q4">
-        <v>10.33099066677022</v>
+        <v>19.65454866561578</v>
       </c>
       <c r="R4">
-        <v>92.97891600093199</v>
+        <v>176.890937990542</v>
       </c>
       <c r="S4">
-        <v>0.1125571322498926</v>
+        <v>0.2511692527370455</v>
       </c>
       <c r="T4">
-        <v>0.1125571322498926</v>
+        <v>0.2511692527370455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,13 +729,13 @@
         <v>0.1747406666666667</v>
       </c>
       <c r="H5">
-        <v>0.5242220000000001</v>
+        <v>0.524222</v>
       </c>
       <c r="I5">
-        <v>0.1511169994877458</v>
+        <v>0.2403455475586373</v>
       </c>
       <c r="J5">
-        <v>0.1511169994877458</v>
+        <v>0.2403455475586373</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.215598</v>
+        <v>0.07904133333333334</v>
       </c>
       <c r="N5">
-        <v>0.646794</v>
+        <v>0.237124</v>
       </c>
       <c r="O5">
-        <v>0.002716166850654942</v>
+        <v>0.0007343710751920149</v>
       </c>
       <c r="P5">
-        <v>0.002716166850654943</v>
+        <v>0.0007343710751920148</v>
       </c>
       <c r="Q5">
-        <v>0.037673738252</v>
+        <v>0.01381173528088889</v>
       </c>
       <c r="R5">
-        <v>0.3390636442680001</v>
+        <v>0.124305617528</v>
       </c>
       <c r="S5">
-        <v>0.0004104589845790551</v>
+        <v>0.00017650281817825</v>
       </c>
       <c r="T5">
-        <v>0.0004104589845790552</v>
+        <v>0.00017650281817825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,13 +791,13 @@
         <v>0.1747406666666667</v>
       </c>
       <c r="H6">
-        <v>0.5242220000000001</v>
+        <v>0.524222</v>
       </c>
       <c r="I6">
-        <v>0.1511169994877458</v>
+        <v>0.2403455475586373</v>
       </c>
       <c r="J6">
-        <v>0.1511169994877458</v>
+        <v>0.2403455475586373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22942333333333</v>
+        <v>68.78716633333333</v>
       </c>
       <c r="N6">
-        <v>93.68826999999999</v>
+        <v>206.361499</v>
       </c>
       <c r="O6">
-        <v>0.3934374364468592</v>
+        <v>0.6390998629361258</v>
       </c>
       <c r="P6">
-        <v>0.3934374364468593</v>
+        <v>0.6390998629361259</v>
       </c>
       <c r="Q6">
-        <v>5.457050252882222</v>
+        <v>12.01991530319756</v>
       </c>
       <c r="R6">
-        <v>49.11345227594</v>
+        <v>108.179237728778</v>
       </c>
       <c r="S6">
-        <v>0.05945508488200005</v>
+        <v>0.1536048065020332</v>
       </c>
       <c r="T6">
-        <v>0.05945508488200008</v>
+        <v>0.1536048065020332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,13 +853,13 @@
         <v>0.1747406666666667</v>
       </c>
       <c r="H7">
-        <v>0.5242220000000001</v>
+        <v>0.524222</v>
       </c>
       <c r="I7">
-        <v>0.1511169994877458</v>
+        <v>0.2403455475586373</v>
       </c>
       <c r="J7">
-        <v>0.1511169994877458</v>
+        <v>0.2403455475586373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.93080933333334</v>
+        <v>38.76511933333333</v>
       </c>
       <c r="N7">
-        <v>143.792428</v>
+        <v>116.295358</v>
       </c>
       <c r="O7">
-        <v>0.6038463967024857</v>
+        <v>0.3601657659886822</v>
       </c>
       <c r="P7">
-        <v>0.6038463967024857</v>
+        <v>0.3601657659886822</v>
       </c>
       <c r="Q7">
-        <v>8.375461576779557</v>
+        <v>6.773842795719554</v>
       </c>
       <c r="R7">
-        <v>75.37915419101601</v>
+        <v>60.96458516147599</v>
       </c>
       <c r="S7">
-        <v>0.0912514556211667</v>
+        <v>0.08656423823842586</v>
       </c>
       <c r="T7">
-        <v>0.09125145562116671</v>
+        <v>0.08656423823842586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.09185900000000001</v>
+        <v>0.04528233333333333</v>
       </c>
       <c r="H8">
-        <v>0.275577</v>
+        <v>0.135847</v>
       </c>
       <c r="I8">
-        <v>0.07944033132496257</v>
+        <v>0.06228319604899872</v>
       </c>
       <c r="J8">
-        <v>0.07944033132496257</v>
+        <v>0.06228319604899872</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.215598</v>
+        <v>0.07904133333333334</v>
       </c>
       <c r="N8">
-        <v>0.646794</v>
+        <v>0.237124</v>
       </c>
       <c r="O8">
-        <v>0.002716166850654942</v>
+        <v>0.0007343710751920149</v>
       </c>
       <c r="P8">
-        <v>0.002716166850654943</v>
+        <v>0.0007343710751920148</v>
       </c>
       <c r="Q8">
-        <v>0.019804616682</v>
+        <v>0.003579176003111112</v>
       </c>
       <c r="R8">
-        <v>0.178241550138</v>
+        <v>0.032212584028</v>
       </c>
       <c r="S8">
-        <v>0.0002157731945499088</v>
+        <v>4.573897764889825E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002157731945499088</v>
+        <v>4.573897764889824E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.09185900000000001</v>
+        <v>0.04528233333333333</v>
       </c>
       <c r="H9">
-        <v>0.275577</v>
+        <v>0.135847</v>
       </c>
       <c r="I9">
-        <v>0.07944033132496257</v>
+        <v>0.06228319604899872</v>
       </c>
       <c r="J9">
-        <v>0.07944033132496257</v>
+        <v>0.06228319604899872</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.22942333333333</v>
+        <v>68.78716633333333</v>
       </c>
       <c r="N9">
-        <v>93.68826999999999</v>
+        <v>206.361499</v>
       </c>
       <c r="O9">
-        <v>0.3934374364468592</v>
+        <v>0.6390998629361258</v>
       </c>
       <c r="P9">
-        <v>0.3934374364468593</v>
+        <v>0.6390998629361259</v>
       </c>
       <c r="Q9">
-        <v>2.868703597976667</v>
+        <v>3.114843394961444</v>
       </c>
       <c r="R9">
-        <v>25.81833238179</v>
+        <v>28.033590554653</v>
       </c>
       <c r="S9">
-        <v>0.0312548003069824</v>
+        <v>0.03980518205813893</v>
       </c>
       <c r="T9">
-        <v>0.03125480030698241</v>
+        <v>0.03980518205813894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.09185900000000001</v>
+        <v>0.04528233333333333</v>
       </c>
       <c r="H10">
-        <v>0.275577</v>
+        <v>0.135847</v>
       </c>
       <c r="I10">
-        <v>0.07944033132496257</v>
+        <v>0.06228319604899872</v>
       </c>
       <c r="J10">
-        <v>0.07944033132496257</v>
+        <v>0.06228319604899872</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.93080933333334</v>
+        <v>38.76511933333333</v>
       </c>
       <c r="N10">
-        <v>143.792428</v>
+        <v>116.295358</v>
       </c>
       <c r="O10">
-        <v>0.6038463967024857</v>
+        <v>0.3601657659886822</v>
       </c>
       <c r="P10">
-        <v>0.6038463967024857</v>
+        <v>0.3601657659886822</v>
       </c>
       <c r="Q10">
-        <v>4.402876214550667</v>
+        <v>1.755375055358444</v>
       </c>
       <c r="R10">
-        <v>39.625885930956</v>
+        <v>15.798375498226</v>
       </c>
       <c r="S10">
-        <v>0.04796975782343026</v>
+        <v>0.02243227501321089</v>
       </c>
       <c r="T10">
-        <v>0.04796975782343026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.6741876666666667</v>
-      </c>
-      <c r="H11">
-        <v>2.022563</v>
-      </c>
-      <c r="I11">
-        <v>0.5830423977531154</v>
-      </c>
-      <c r="J11">
-        <v>0.5830423977531154</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.215598</v>
-      </c>
-      <c r="N11">
-        <v>0.646794</v>
-      </c>
-      <c r="O11">
-        <v>0.002716166850654942</v>
-      </c>
-      <c r="P11">
-        <v>0.002716166850654943</v>
-      </c>
-      <c r="Q11">
-        <v>0.145353512558</v>
-      </c>
-      <c r="R11">
-        <v>1.308181613022</v>
-      </c>
-      <c r="S11">
-        <v>0.001583640433303386</v>
-      </c>
-      <c r="T11">
-        <v>0.001583640433303386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.6741876666666667</v>
-      </c>
-      <c r="H12">
-        <v>2.022563</v>
-      </c>
-      <c r="I12">
-        <v>0.5830423977531154</v>
-      </c>
-      <c r="J12">
-        <v>0.5830423977531154</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>31.22942333333333</v>
-      </c>
-      <c r="N12">
-        <v>93.68826999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.3934374364468592</v>
-      </c>
-      <c r="P12">
-        <v>0.3934374364468593</v>
-      </c>
-      <c r="Q12">
-        <v>21.05449204844556</v>
-      </c>
-      <c r="R12">
-        <v>189.49042843601</v>
-      </c>
-      <c r="S12">
-        <v>0.2293907063118158</v>
-      </c>
-      <c r="T12">
-        <v>0.2293907063118158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.6741876666666667</v>
-      </c>
-      <c r="H13">
-        <v>2.022563</v>
-      </c>
-      <c r="I13">
-        <v>0.5830423977531154</v>
-      </c>
-      <c r="J13">
-        <v>0.5830423977531154</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>47.93080933333334</v>
-      </c>
-      <c r="N13">
-        <v>143.792428</v>
-      </c>
-      <c r="O13">
-        <v>0.6038463967024857</v>
-      </c>
-      <c r="P13">
-        <v>0.6038463967024857</v>
-      </c>
-      <c r="Q13">
-        <v>32.31436050588489</v>
-      </c>
-      <c r="R13">
-        <v>290.829244552964</v>
-      </c>
-      <c r="S13">
-        <v>0.3520680510079962</v>
-      </c>
-      <c r="T13">
-        <v>0.3520680510079962</v>
+        <v>0.02243227501321089</v>
       </c>
     </row>
   </sheetData>
